--- a/Buat Pengajuan Mobil Bekas - ATS-20.xlsx
+++ b/Buat Pengajuan Mobil Bekas - ATS-20.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6F4E0-197F-4432-997D-8E7B62299960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Nama MobilTOYO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>MerkMobil</t>
   </si>
@@ -112,19 +111,28 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Cabang Harus Diisi</t>
-  </si>
-  <si>
     <t>DP Harus Diisi</t>
   </si>
   <si>
     <t>Uang Harus 20% Dari OTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOYOTA CALYA 1.2 G M/T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAIHATSU AYLA 1.2 X M/T</t>
+  </si>
+  <si>
+    <t>Uang tidak lebih 99% Dari OTR</t>
+  </si>
+  <si>
+    <t>DP minimal 20%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,26 +446,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,9 +504,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -522,9 +534,12 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -549,9 +564,12 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -576,35 +594,44 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -625,12 +652,15 @@
         <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -654,7 +684,39 @@
         <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>50000000000</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -664,20 +726,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402757DF-2198-414C-BB1A-BFF1274385C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -685,7 +747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -693,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -701,59 +763,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>

--- a/Buat Pengajuan Mobil Bekas - ATS-20.xlsx
+++ b/Buat Pengajuan Mobil Bekas - ATS-20.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6F4E0-197F-4432-997D-8E7B62299960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Nama MobilTOYO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>MerkMobil</t>
   </si>
@@ -111,28 +112,19 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>Cabang Harus Diisi</t>
+  </si>
+  <si>
     <t>DP Harus Diisi</t>
   </si>
   <si>
     <t>Uang Harus 20% Dari OTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TOYOTA CALYA 1.2 G M/T</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DAIHATSU AYLA 1.2 X M/T</t>
-  </si>
-  <si>
-    <t>Uang tidak lebih 99% Dari OTR</t>
-  </si>
-  <si>
-    <t>DP minimal 20%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,27 +438,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,12 +495,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -534,12 +522,9 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -564,12 +549,9 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -594,44 +576,35 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -652,15 +625,12 @@
         <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -684,39 +654,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8">
-        <v>50000000000</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -726,20 +664,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402757DF-2198-414C-BB1A-BFF1274385C4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.109375" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -747,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -755,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -763,59 +701,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
